--- a/Copy of x_sec_data.xlsx
+++ b/Copy of x_sec_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas_ja\Desktop\CrossSectionTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216982BF-B9C9-4485-9970-10BAD8CDF5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFB035B-7F36-4364-99F3-EBE8D5F71142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{146F5B05-70B1-41F3-A7B7-A3638CF29586}"/>
   </bookViews>
@@ -239,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -266,6 +266,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1867,7 +1870,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,7 +1958,9 @@
       <c r="F2" s="8">
         <v>82</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="8">
+        <v>92</v>
+      </c>
       <c r="H2" s="8">
         <v>92</v>
       </c>
@@ -1970,10 +1975,10 @@
         <v>13</v>
       </c>
       <c r="M2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>13</v>
@@ -1999,10 +2004,10 @@
       <c r="E3" s="10">
         <v>30</v>
       </c>
-      <c r="F3" s="10">
-        <v>80</v>
-      </c>
-      <c r="G3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
+        <v>90</v>
+      </c>
       <c r="H3" s="10">
         <v>90</v>
       </c>
@@ -2016,16 +2021,16 @@
       <c r="L3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="Q3" s="10" t="s">
@@ -2049,7 +2054,9 @@
       <c r="F4" s="10">
         <v>79</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="10">
+        <v>89</v>
+      </c>
       <c r="H4" s="10">
         <v>89</v>
       </c>
@@ -2061,11 +2068,11 @@
       <c r="L4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="O4" s="10" t="s">
         <v>13</v>
@@ -2095,7 +2102,9 @@
       <c r="F5" s="11">
         <v>79</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11">
+        <v>89</v>
+      </c>
       <c r="H5" s="11">
         <v>89</v>
       </c>
@@ -2111,7 +2120,7 @@
         <v>16</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>13</v>
@@ -2163,7 +2172,7 @@
         <v>15</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O6" s="11" t="s">
         <v>13</v>
